--- a/fit/19 gennaio excel dati.xlsx
+++ b/fit/19 gennaio excel dati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Documents\GitHub\Astrofisica_nico\Dati\19 gennaio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Documents\GitHub\astrosofia\fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D166FE-89B2-4EB8-991E-6D7896454754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A374EE84-37B9-4D10-96E1-704D0A785985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CF3E6C1-E296-48D8-B189-F1FC14310B4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1CF3E6C1-E296-48D8-B189-F1FC14310B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>elevaz</t>
   </si>
@@ -145,10 +145,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,18 +444,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E320F5B-DA88-448F-842E-020EF7CBF077}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-20</v>
       </c>
@@ -536,7 +532,7 @@
         <v>104.74140319999999</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-25</v>
       </c>
@@ -599,7 +595,7 @@
         <v>89.855512739999995</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-30</v>
       </c>
@@ -662,7 +658,7 @@
         <v>28.231909980000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-35</v>
       </c>
@@ -725,7 +721,7 @@
         <v>24.558618979999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-40</v>
       </c>
@@ -788,7 +784,7 @@
         <v>41.53979357</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-45</v>
       </c>
@@ -851,7 +847,7 @@
         <v>38.82704751</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-50</v>
       </c>
@@ -914,7 +910,7 @@
         <v>38.894947549999998</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>-55</v>
       </c>
@@ -977,7 +973,7 @@
         <v>85.801468189999994</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -1036,7 +1032,7 @@
         <v>43.156915789999999</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>54.755945179999998</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>74.147487190000007</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -1213,7 +1209,7 @@
         <v>47.958747119999998</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -1272,7 +1268,7 @@
         <v>37.698729360000002</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45</v>
       </c>
@@ -1331,7 +1327,7 @@
         <v>38.82704751</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>85.801468189999994</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>55</v>
       </c>
@@ -1413,6 +1409,244 @@
         <v>0.1</v>
       </c>
       <c r="V17" s="1">
+        <v>38.894947549999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-55</v>
+      </c>
+      <c r="B22">
+        <v>3675.9696100000001</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>104.74140319999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-50</v>
+      </c>
+      <c r="B23">
+        <v>3625.614458</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>89.855512739999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-45</v>
+      </c>
+      <c r="B24">
+        <v>2915.5252289999999</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24">
+        <v>28.231909980000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-40</v>
+      </c>
+      <c r="B25">
+        <v>3029.6689660000002</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>24.558618979999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-35</v>
+      </c>
+      <c r="B26">
+        <v>3083.2965519999998</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26">
+        <v>39.349065379999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-30</v>
+      </c>
+      <c r="B27">
+        <v>2914.0275860000002</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>45.839082189999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-25</v>
+      </c>
+      <c r="B28">
+        <v>2884.1202750000002</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>41.53979357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-20</v>
+      </c>
+      <c r="B29">
+        <v>2700.784404</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>38.82704751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>2700.784404</v>
+      </c>
+      <c r="C30">
+        <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>38.82704751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2781.7830690000001</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>37.698729360000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2845.4603900000002</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>47.958747119999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3028.6216680000002</v>
+      </c>
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>74.147487190000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3172.2199310000001</v>
+      </c>
+      <c r="C34">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>54.755945179999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3129.9097160000001</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43.156915789999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3796.3233019999998</v>
+      </c>
+      <c r="C36">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>85.801468189999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3558.982818</v>
+      </c>
+      <c r="C37">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="1">
         <v>38.894947549999998</v>
       </c>
     </row>
@@ -1602,20 +1836,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bb9a0474-075b-4bdf-8fb1-ae2bb252bd11" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bb9a0474-075b-4bdf-8fb1-ae2bb252bd11" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,14 +1872,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4313094-8B04-4D79-AEEB-A7C96CCD1847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1370126-2D79-4419-863E-52EC7C931D57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1660,4 +1886,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4313094-8B04-4D79-AEEB-A7C96CCD1847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>